--- a/cypress/fixtures/archivos/Echeqs_cuitCliente_RazonSocialCliente .xlsx
+++ b/cypress/fixtures/archivos/Echeqs_cuitCliente_RazonSocialCliente .xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mery\Downloads\pruebas\lotes\5_lote-medoro - op-cheque-echeq-reten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agusalba\Desktop\RECIBOS-ORACLE\recibos\2025\febrero\PERG 1500\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4852B968-1CCB-414C-972B-AEAE544B7D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9870"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>nroCheque</t>
   </si>
@@ -36,104 +37,73 @@
     <t>007-GALICIA CC-0750</t>
   </si>
   <si>
-    <t>97801820</t>
-  </si>
-  <si>
-    <t>00001138</t>
-  </si>
-  <si>
-    <t>26243183</t>
-  </si>
-  <si>
-    <t>00000102</t>
-  </si>
-  <si>
-    <t>04784489</t>
-  </si>
-  <si>
-    <t>00000074</t>
-  </si>
-  <si>
-    <t>90000278</t>
-  </si>
-  <si>
-    <t>00000645</t>
-  </si>
-  <si>
-    <t>26314531</t>
-  </si>
-  <si>
-    <t>90000262</t>
-  </si>
-  <si>
-    <t>54760553</t>
-  </si>
-  <si>
-    <t>11720987</t>
-  </si>
-  <si>
-    <t>04784488</t>
-  </si>
-  <si>
-    <t>00000684</t>
-  </si>
-  <si>
-    <t>00001537</t>
-  </si>
-  <si>
-    <t>90020216</t>
-  </si>
-  <si>
-    <t>30272648</t>
-  </si>
-  <si>
-    <t>54457713</t>
-  </si>
-  <si>
-    <t>01085407</t>
-  </si>
-  <si>
-    <t>00002714</t>
-  </si>
-  <si>
-    <t>00000665</t>
-  </si>
-  <si>
-    <t>00002881</t>
-  </si>
-  <si>
-    <t>00000185</t>
-  </si>
-  <si>
-    <t>19302433</t>
-  </si>
-  <si>
-    <t>54387023</t>
-  </si>
-  <si>
-    <t>00000285</t>
-  </si>
-  <si>
-    <t>83840877</t>
-  </si>
-  <si>
-    <t>00001534</t>
-  </si>
-  <si>
-    <t>90000444</t>
-  </si>
-  <si>
-    <t>06112728</t>
+    <t>12500250</t>
+  </si>
+  <si>
+    <t>00001241</t>
+  </si>
+  <si>
+    <t>00000392</t>
+  </si>
+  <si>
+    <t>97999354</t>
+  </si>
+  <si>
+    <t>03350734</t>
+  </si>
+  <si>
+    <t>00001276</t>
+  </si>
+  <si>
+    <t>00000222</t>
+  </si>
+  <si>
+    <t>00002086</t>
+  </si>
+  <si>
+    <t>00000473</t>
+  </si>
+  <si>
+    <t>00000065</t>
+  </si>
+  <si>
+    <t>90021130</t>
+  </si>
+  <si>
+    <t>71558402</t>
+  </si>
+  <si>
+    <t>30004727</t>
+  </si>
+  <si>
+    <t>05800432</t>
+  </si>
+  <si>
+    <t>00001491</t>
+  </si>
+  <si>
+    <t>70276747</t>
+  </si>
+  <si>
+    <t>70276746</t>
+  </si>
+  <si>
+    <t>70276749</t>
+  </si>
+  <si>
+    <t>70276750</t>
+  </si>
+  <si>
+    <t>70276748</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="\$\ #,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -190,13 +160,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -412,25 +381,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,428 +413,285 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5">
-        <v>20000000</v>
+      <c r="B2" s="4">
+        <v>80991.23</v>
       </c>
       <c r="C2" s="3">
-        <v>45736.000138888892</v>
+        <v>45715.000138888892</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5">
-        <v>824842.22</v>
+      <c r="B3" s="4">
+        <v>220764.5</v>
       </c>
       <c r="C3" s="3">
-        <v>45736.000138888892</v>
+        <v>45726.000138888892</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5">
-        <v>1348366.12</v>
+      <c r="B4" s="4">
+        <v>348042.83</v>
       </c>
       <c r="C4" s="3">
-        <v>45736.000138888892</v>
+        <v>45723.000138888892</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5">
-        <v>600000</v>
+      <c r="B5" s="4">
+        <v>388622.48</v>
       </c>
       <c r="C5" s="3">
-        <v>45736.000138888892</v>
+        <v>45723.000138888892</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5">
-        <v>1600000</v>
+      <c r="B6" s="4">
+        <v>766184.57</v>
       </c>
       <c r="C6" s="3">
-        <v>45736.000138888892</v>
+        <v>45721.000138888892</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5">
-        <v>860000</v>
+      <c r="B7" s="4">
+        <v>773565.1</v>
       </c>
       <c r="C7" s="3">
-        <v>45736.000138888892</v>
+        <v>45723.000138888892</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5">
-        <v>586874.1</v>
+      <c r="B8" s="4">
+        <v>779895</v>
       </c>
       <c r="C8" s="3">
-        <v>45736.000138888892</v>
+        <v>45727.000138888892</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5">
-        <v>500000</v>
+      <c r="B9" s="4">
+        <v>870000</v>
       </c>
       <c r="C9" s="3">
-        <v>45736.000138888892</v>
+        <v>45727.000138888892</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5">
-        <v>500000</v>
+      <c r="B10" s="4">
+        <v>895804</v>
       </c>
       <c r="C10" s="3">
-        <v>45736.000138888892</v>
+        <v>45709.000138888892</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="5">
-        <v>783704.71</v>
+      <c r="B11" s="4">
+        <v>1178978.25</v>
       </c>
       <c r="C11" s="3">
-        <v>45736.000138888892</v>
+        <v>45722.000138888892</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5">
-        <v>640655.75</v>
+      <c r="B12" s="4">
+        <v>2894136.17</v>
       </c>
       <c r="C12" s="3">
-        <v>45736.000138888892</v>
+        <v>45724.000138888892</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="5">
-        <v>514323.78</v>
+      <c r="B13" s="4">
+        <v>4107614.35</v>
       </c>
       <c r="C13" s="3">
-        <v>45736.000138888892</v>
+        <v>45722.000138888892</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5">
-        <v>1319260.8799999999</v>
+      <c r="B14" s="4">
+        <v>4460503.1399999997</v>
       </c>
       <c r="C14" s="3">
-        <v>45736.000138888892</v>
+        <v>45720.000138888892</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="5">
-        <v>2460943.5299999998</v>
+      <c r="B15" s="4">
+        <v>4866656.17</v>
       </c>
       <c r="C15" s="3">
-        <v>45736.000138888892</v>
+        <v>45725.000138888892</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="5">
-        <v>791861.43</v>
+      <c r="B16" s="4">
+        <v>5374218.1399999997</v>
       </c>
       <c r="C16" s="3">
-        <v>45736.000138888892</v>
+        <v>45719.000138888892</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="5">
-        <v>814848.67</v>
+      <c r="B17" s="4">
+        <v>6000000</v>
       </c>
       <c r="C17" s="3">
-        <v>45736.000138888892</v>
+        <v>45818.000138888892</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="5">
-        <v>869875.94</v>
+      <c r="B18" s="4">
+        <v>6000000</v>
       </c>
       <c r="C18" s="3">
-        <v>45736.000138888892</v>
+        <v>45818.000138888892</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="5">
-        <v>614186.74</v>
+      <c r="B19" s="4">
+        <v>6000000</v>
       </c>
       <c r="C19" s="3">
-        <v>45736.000138888892</v>
+        <v>45818.000138888892</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="5">
-        <v>888333.32</v>
+      <c r="B20" s="4">
+        <v>6000000</v>
       </c>
       <c r="C20" s="3">
-        <v>45736.000138888892</v>
+        <v>45818.000138888892</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="5">
-        <v>515779.13</v>
+      <c r="B21" s="4">
+        <v>6000000</v>
       </c>
       <c r="C21" s="3">
-        <v>45736.000138888892</v>
+        <v>45818.000138888892</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="5">
-        <v>1466056</v>
-      </c>
-      <c r="C22" s="3">
-        <v>45736.000138888892</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="5">
-        <v>695926.73</v>
-      </c>
-      <c r="C23" s="3">
-        <v>45736.000138888892</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="5">
-        <v>846858.47</v>
-      </c>
-      <c r="C24" s="3">
-        <v>45736.000138888892</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="5">
-        <v>152901</v>
-      </c>
-      <c r="C25" s="3">
-        <v>45736.000138888892</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="5">
-        <v>990072</v>
-      </c>
-      <c r="C26" s="3">
-        <v>45736.000138888892</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="5">
-        <v>627644.78</v>
-      </c>
-      <c r="C27" s="3">
-        <v>45736.000138888892</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="5">
-        <v>10000000</v>
-      </c>
-      <c r="C28" s="3">
-        <v>45736.000138888892</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="5">
-        <v>659923.96</v>
-      </c>
-      <c r="C29" s="3">
-        <v>45736.000138888892</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="5">
-        <v>250000</v>
-      </c>
-      <c r="C30" s="3">
-        <v>45736.000138888892</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="5">
-        <v>620272.38</v>
-      </c>
-      <c r="C31" s="3">
-        <v>45736.000138888892</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
